--- a/output/fit_clients/fit_round_247.xlsx
+++ b/output/fit_clients/fit_round_247.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1924754191.140656</v>
+        <v>2500715733.340981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07955897023149781</v>
+        <v>0.07367228322230723</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04102390171623013</v>
+        <v>0.04369748306092897</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>962377081.0881103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2138933124.612749</v>
+        <v>1976057909.443162</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1220859461439147</v>
+        <v>0.1820748614614429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04040598189571541</v>
+        <v>0.05039139619366854</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1069466623.872967</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3488649583.306315</v>
+        <v>3409654697.22929</v>
       </c>
       <c r="F4" t="n">
-        <v>0.153525637033779</v>
+        <v>0.1554992696287907</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02310671882845906</v>
+        <v>0.03475344785831545</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>89</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1744324769.599022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3487632534.152309</v>
+        <v>2626781799.837223</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08069824774369214</v>
+        <v>0.07656428705881231</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04766300572125654</v>
+        <v>0.03613111090423576</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1743816304.664159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2403539677.781755</v>
+        <v>2336651794.406608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1361346352534241</v>
+        <v>0.1061489971601302</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04252601134239122</v>
+        <v>0.05497456794896151</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1201769824.804027</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3039359069.862874</v>
+        <v>2451770122.174318</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09150593291004114</v>
+        <v>0.08695960016590576</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04727200322490821</v>
+        <v>0.03195145997096765</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>77</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1519679496.036263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3313211315.568979</v>
+        <v>3862167831.124946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1620655572581211</v>
+        <v>0.142232691354508</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02040350097438682</v>
+        <v>0.03156828678519442</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>79</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1656605747.306202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2060281964.70141</v>
+        <v>1581904148.094831</v>
       </c>
       <c r="F9" t="n">
-        <v>0.137914291407088</v>
+        <v>0.1768079130007263</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03688959467761882</v>
+        <v>0.03365894579466379</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1030141000.591604</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4111026003.734968</v>
+        <v>4804377999.34293</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1656071570575917</v>
+        <v>0.1624809309442868</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04442237532163271</v>
+        <v>0.04422152606200594</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>104</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2055513032.328967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3414312426.632516</v>
+        <v>3931450066.930104</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1555688982101117</v>
+        <v>0.1661403446880396</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04758117722714258</v>
+        <v>0.03416601457688068</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>102</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1707156185.126143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2559623612.260026</v>
+        <v>2273145084.305564</v>
       </c>
       <c r="F12" t="n">
-        <v>0.195952211275921</v>
+        <v>0.1771390149632848</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04770253908475459</v>
+        <v>0.04300889959760798</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1279811783.806904</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3978716655.833565</v>
+        <v>3680147130.572214</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08094576081354661</v>
+        <v>0.07910323182584578</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02172049712833555</v>
+        <v>0.02950236177959415</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>83</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1989358383.911544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2613790582.331765</v>
+        <v>3067780008.347269</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1194842489093759</v>
+        <v>0.1717283172701089</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04262679792758602</v>
+        <v>0.03298635612293539</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1306895353.563105</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1731281217.734042</v>
+        <v>1553020736.715197</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06732228190900851</v>
+        <v>0.09975646081871857</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04319889561289264</v>
+        <v>0.04689946816787974</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>865640746.7968414</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1775272284.431579</v>
+        <v>2851920333.894281</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08557052539026853</v>
+        <v>0.1021906293171854</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0439475883389012</v>
+        <v>0.03726250056235311</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>887636237.7648045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4966441068.134758</v>
+        <v>3782235855.474023</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1614271813905231</v>
+        <v>0.1714234375387277</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05279276572878579</v>
+        <v>0.04324313503590645</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2483220520.898413</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3890978448.311536</v>
+        <v>3868158085.768536</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1744529566967583</v>
+        <v>0.1623459882926958</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03368063201706923</v>
+        <v>0.02372100399840247</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>81</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1945489189.875856</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1089033019.904216</v>
+        <v>1321867505.483997</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1864718366916332</v>
+        <v>0.1221688466249159</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02134244171068442</v>
+        <v>0.02125901718015714</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>544516560.8377765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2422985114.986365</v>
+        <v>2478388896.622444</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1030277014733238</v>
+        <v>0.1069295937608138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03059794609458684</v>
+        <v>0.02342696371148817</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1211492538.783073</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1857650759.285604</v>
+        <v>2149476725.339492</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07806312394809795</v>
+        <v>0.07497411150367363</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03392637851833383</v>
+        <v>0.03166111446225033</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>928825429.2160379</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3691327482.562514</v>
+        <v>3102887073.098073</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09572385587182798</v>
+        <v>0.1232161268436915</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03982998715154529</v>
+        <v>0.04582704731711043</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1845663761.405516</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1189323924.070234</v>
+        <v>960146229.886025</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1805916718899923</v>
+        <v>0.1673727465332409</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03342593591580061</v>
+        <v>0.03494363239747318</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>594662000.3061172</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4018541546.036495</v>
+        <v>2502294034.100877</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1166920130875343</v>
+        <v>0.1274589297687619</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02633544356792558</v>
+        <v>0.03000880802276188</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>72</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2009270739.747121</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1173190234.210367</v>
+        <v>1401605044.062751</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1012222664709506</v>
+        <v>0.08363213120379141</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02712637853973875</v>
+        <v>0.02961528001401411</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>586595141.2311164</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>971678596.5462517</v>
+        <v>1271253180.618634</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09938818763838515</v>
+        <v>0.07611344583385077</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03322376707618065</v>
+        <v>0.0340582172418025</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>485839263.4685193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4386289027.303369</v>
+        <v>3424349530.350509</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1036286399180367</v>
+        <v>0.0988792388298223</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02084672650443945</v>
+        <v>0.02554305250536975</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2193144504.587016</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3531773842.311212</v>
+        <v>3065971703.078681</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09851353575181851</v>
+        <v>0.09399817011397482</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04622750664965833</v>
+        <v>0.0473481198675527</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1765886978.555447</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5167501989.037708</v>
+        <v>3949223633.416747</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1348712619466002</v>
+        <v>0.1260177122754904</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02934435756123247</v>
+        <v>0.04351806847208349</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>109</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2583750930.4471</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1740856983.78926</v>
+        <v>1688916593.323212</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1084047363834774</v>
+        <v>0.09288258232502788</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02472277846010393</v>
+        <v>0.0263772214439881</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>870428499.863009</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1278402891.638641</v>
+        <v>1194068179.145161</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09064360582083691</v>
+        <v>0.1100222967331543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04579664703198497</v>
+        <v>0.05012375501145602</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>639201378.819093</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1224023112.646483</v>
+        <v>1721693537.05429</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08801504196586449</v>
+        <v>0.1028331836376627</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03845743817945926</v>
+        <v>0.03040852533131636</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>612011567.5138962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3094303429.964425</v>
+        <v>2351391279.848617</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1964235655934926</v>
+        <v>0.1400575508774205</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05526326292541346</v>
+        <v>0.0554384402224765</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>75</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1547151702.556264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1186396373.547285</v>
+        <v>1080409039.019648</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09673817022502648</v>
+        <v>0.07748520118925016</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02008557868798105</v>
+        <v>0.02472021613880104</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>593198194.0929902</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1098396114.761149</v>
+        <v>1007150066.136473</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07170403245804659</v>
+        <v>0.1084451567673297</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02740267850300855</v>
+        <v>0.03894539617280466</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>549198054.3899412</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2070451154.473823</v>
+        <v>3176721322.930602</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1193320913391386</v>
+        <v>0.1101125587780161</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02315750377087014</v>
+        <v>0.02636620556156113</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>62</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1035225633.634969</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1947794215.987019</v>
+        <v>2613692679.698551</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1033665987594599</v>
+        <v>0.09627430426894805</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03768479161944136</v>
+        <v>0.03341151575112682</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>63</v>
-      </c>
-      <c r="J37" t="n">
-        <v>973897128.0928608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2162983484.116755</v>
+        <v>1426976756.203461</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1113388669984156</v>
+        <v>0.1044578541899311</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02581246819738146</v>
+        <v>0.02570001127749605</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1081491697.652276</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1594675833.535097</v>
+        <v>1800762492.648353</v>
       </c>
       <c r="F39" t="n">
-        <v>0.193513921211955</v>
+        <v>0.1550926718339229</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02029143234679508</v>
+        <v>0.02122338165537825</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>797337972.8301343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1486462843.610441</v>
+        <v>1647540367.152443</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1003195202660622</v>
+        <v>0.09790549322018986</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04575996894950325</v>
+        <v>0.0538788389798059</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>743231391.3651682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2589660841.733631</v>
+        <v>2320886792.100636</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1007526782737769</v>
+        <v>0.1470108575933214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03000648686142528</v>
+        <v>0.03416450800096273</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>59</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1294830437.403383</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2624369446.679693</v>
+        <v>2896093986.386749</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09244604057012647</v>
+        <v>0.1210444013803015</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04117284243480046</v>
+        <v>0.03765499563974515</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>81</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1312184657.93644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2534863949.937203</v>
+        <v>2425719420.621887</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1935150412740308</v>
+        <v>0.203066976085748</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02303994177620721</v>
+        <v>0.02474657667598904</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>87</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1267432020.127548</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1667221981.711359</v>
+        <v>1945548578.029957</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07030006812088156</v>
+        <v>0.0931171128290081</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03219937769912577</v>
+        <v>0.02487373533686706</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>833611030.7975695</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2487877860.72018</v>
+        <v>1773363872.720419</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1938296711887045</v>
+        <v>0.1919801074992379</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04727797369788028</v>
+        <v>0.05124304787066954</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1243938970.418829</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4240065067.022038</v>
+        <v>5308743403.413746</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1250115671897347</v>
+        <v>0.1280091791740679</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04255383748655092</v>
+        <v>0.0380959078176602</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>88</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2120032516.778902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5070283581.906837</v>
+        <v>4327235860.862949</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1396086536456723</v>
+        <v>0.1982128260028197</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05565462339752537</v>
+        <v>0.05359092865019956</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>66</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2535141850.755669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3410883568.153346</v>
+        <v>3101665452.817317</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1017297325281769</v>
+        <v>0.08335291007483343</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02897462992569185</v>
+        <v>0.0273036180210133</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1705441852.666358</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1988044326.451401</v>
+        <v>1579456075.107275</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1540954767841753</v>
+        <v>0.1212448295064187</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02923155013472277</v>
+        <v>0.02926514871575341</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>994022119.3518463</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2710650490.49321</v>
+        <v>2969186008.175114</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1446607177258931</v>
+        <v>0.1744385198204389</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03524196208394136</v>
+        <v>0.03617405628250368</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>84</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1355325325.67364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1197693089.458389</v>
+        <v>1256453047.789152</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1428707862500727</v>
+        <v>0.1330693878406286</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03912063485665953</v>
+        <v>0.0378364133620297</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>598846596.6514199</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4193677771.562838</v>
+        <v>4343408622.316839</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1286049376851487</v>
+        <v>0.1300581025161179</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04834333727177832</v>
+        <v>0.04572196733907322</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>102</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2096838930.852028</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3165202774.66284</v>
+        <v>3653070971.152555</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1999787114892893</v>
+        <v>0.1413744169466905</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02228244291478964</v>
+        <v>0.0253268814723861</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>71</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1582601408.372789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4418636998.469955</v>
+        <v>4707473434.124475</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1111018413538906</v>
+        <v>0.1662646433307788</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04854101846778981</v>
+        <v>0.04376907800303382</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2209318596.186906</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4421354970.316584</v>
+        <v>4785666323.755762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.17195588982837</v>
+        <v>0.1877229637986202</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03225719947234262</v>
+        <v>0.02894437509922305</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2210677478.642873</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1308650988.964805</v>
+        <v>1144847623.848372</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1296110352571493</v>
+        <v>0.1407876618952767</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05362314512365492</v>
+        <v>0.04504445493939098</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>654325565.0554327</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3210033214.199301</v>
+        <v>4138961599.308816</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1830302177027585</v>
+        <v>0.16748231395829</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02241065131174875</v>
+        <v>0.02586349078769618</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>78</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1605016629.12893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1342044387.115678</v>
+        <v>1621361248.953394</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1420519160819205</v>
+        <v>0.167843564656741</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03538089051109958</v>
+        <v>0.02463236545134883</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>671022239.088447</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3931254435.717581</v>
+        <v>3441187537.557653</v>
       </c>
       <c r="F59" t="n">
-        <v>0.11923629467717</v>
+        <v>0.09314944045249102</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03180457768384936</v>
+        <v>0.03596248487438588</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1965627197.097269</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3719977424.777188</v>
+        <v>2759535652.344562</v>
       </c>
       <c r="F60" t="n">
-        <v>0.137616046282566</v>
+        <v>0.1387167427448822</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02463586515947497</v>
+        <v>0.03110676541715723</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1859988858.250638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3198828332.502194</v>
+        <v>3111777056.247603</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1261054551585617</v>
+        <v>0.1174648688710861</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02282465466798374</v>
+        <v>0.02483431812565326</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>87</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1599414127.961311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1294606404.297965</v>
+        <v>1440563417.206906</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1779502812489754</v>
+        <v>0.134609225732415</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04035263004509075</v>
+        <v>0.03202027153901295</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>647303154.4012944</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3470564999.61411</v>
+        <v>4034645459.004033</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0968807635023126</v>
+        <v>0.1020825598116299</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0475393524004586</v>
+        <v>0.04292531565736522</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1735282585.799908</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4315001898.477781</v>
+        <v>5072203808.25769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1700655852173964</v>
+        <v>0.1695988048340326</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03351455042232859</v>
+        <v>0.03505853131237797</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>77</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2157501007.250528</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3641093032.095152</v>
+        <v>3849923973.43692</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1577151381539502</v>
+        <v>0.1335421223926358</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02248772762156249</v>
+        <v>0.0311166731349189</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>89</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1820546556.035794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4577420512.606738</v>
+        <v>3458258444.228115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1138729686192324</v>
+        <v>0.1364108676571189</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03330863973044066</v>
+        <v>0.03430345475285109</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>72</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2288710260.849087</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2149814697.785082</v>
+        <v>3494153497.885275</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06954051013154711</v>
+        <v>0.08254696330385702</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03330128230836706</v>
+        <v>0.03577212287394919</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1074907439.145075</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5447483801.868221</v>
+        <v>4919775153.396976</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09737152920739378</v>
+        <v>0.1214314601618393</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04317887736302576</v>
+        <v>0.04873632092961204</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2723741984.433439</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2314537446.237945</v>
+        <v>1841617922.238223</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1293988498982145</v>
+        <v>0.123990396773711</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04782179562384638</v>
+        <v>0.05884648277510633</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1157268768.719824</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3629568785.122171</v>
+        <v>3220103826.140788</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08624439047821195</v>
+        <v>0.08756946508454981</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03036457853698977</v>
+        <v>0.03057968123729445</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>71</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1814784410.587149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5242307944.542045</v>
+        <v>4308883634.578519</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1753077664332018</v>
+        <v>0.1702728885985437</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02307018776396397</v>
+        <v>0.02616000759528689</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>90</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2621154096.061275</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2078936991.377328</v>
+        <v>2267188426.739313</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1031441730555825</v>
+        <v>0.09266276899332923</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04079726484335711</v>
+        <v>0.048128463907644</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1039468429.312665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2911990415.671219</v>
+        <v>2850777813.207464</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07516454879225275</v>
+        <v>0.1121547416960039</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03971815549229837</v>
+        <v>0.04750054798527396</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>95</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1455995211.852803</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2761438793.080866</v>
+        <v>3315064033.514543</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1837801588228579</v>
+        <v>0.1248426000139578</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02723742746763395</v>
+        <v>0.03281138384841146</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>84</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1380719482.56634</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2440443621.796726</v>
+        <v>2496513771.871332</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1304325935574791</v>
+        <v>0.1129963400435689</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03606086722849628</v>
+        <v>0.02595298232805335</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1220221733.844564</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3462511297.45782</v>
+        <v>4808543438.124771</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1243636506143884</v>
+        <v>0.1028108116427489</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02547931441726367</v>
+        <v>0.0274849384340681</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1731255610.92808</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2141518346.838701</v>
+        <v>1881540624.510238</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1245141134119868</v>
+        <v>0.1252598261539449</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02690923325959592</v>
+        <v>0.02526848579381216</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1070759255.800555</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4701558017.935415</v>
+        <v>3213693995.718137</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1177387357791506</v>
+        <v>0.1218338308111811</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05419491694852557</v>
+        <v>0.0527610206937587</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>86</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2350778924.493644</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1565498115.118284</v>
+        <v>1453899054.613677</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1254262307399029</v>
+        <v>0.1344826240691267</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02996014794817875</v>
+        <v>0.03423135980682002</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>782749103.2333618</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3498992153.2126</v>
+        <v>4396150053.673285</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07714483644133135</v>
+        <v>0.08215417331706681</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02813484730005595</v>
+        <v>0.03669441291156297</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>52</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1749496051.143846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4598270475.388042</v>
+        <v>3577806019.997152</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08817346667085625</v>
+        <v>0.1278054945160852</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02351828192205535</v>
+        <v>0.02554614634345336</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2299135223.084566</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3497727265.457559</v>
+        <v>4112787400.929043</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1335204763510176</v>
+        <v>0.1872186694108884</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02720459278482532</v>
+        <v>0.0227898654701611</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1748863700.517276</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2412716274.9548</v>
+        <v>2272013766.78464</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242476228732931</v>
+        <v>0.1504519016416813</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0390524915003267</v>
+        <v>0.03439492859817415</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1206358174.168377</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2448426904.604095</v>
+        <v>2205087707.190092</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1134424019959302</v>
+        <v>0.09427545082892469</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03249052258579156</v>
+        <v>0.0369218390512427</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1224213391.669407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3237808258.130041</v>
+        <v>2387835483.170079</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1819032248320669</v>
+        <v>0.1797756498000063</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03888348195596666</v>
+        <v>0.05190182722621246</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>93</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1618904215.446124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2050431761.243009</v>
+        <v>2156116580.454446</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1269558989498493</v>
+        <v>0.1171523730923875</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0228652256681681</v>
+        <v>0.0239458926441402</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1025215915.258664</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1187669585.155973</v>
+        <v>1231624049.365349</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1647241295908253</v>
+        <v>0.16408437008962</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03823120659280257</v>
+        <v>0.04197970137341099</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>593834844.9882346</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2808073827.894102</v>
+        <v>3491060159.944399</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1545548340924538</v>
+        <v>0.1629733578598021</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03783430346901337</v>
+        <v>0.03133753733370415</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>98</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1404036925.414212</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2901981717.478042</v>
+        <v>3350607995.446003</v>
       </c>
       <c r="F89" t="n">
-        <v>0.156659071575916</v>
+        <v>0.1601896068405689</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03459524544068163</v>
+        <v>0.0278899916724546</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>83</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1450990904.015841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1564407567.518645</v>
+        <v>1784250424.468236</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09259716520142675</v>
+        <v>0.1360961036535411</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04477412531574616</v>
+        <v>0.05298373657545962</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>782203774.2654738</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1453254078.481751</v>
+        <v>1920386687.494692</v>
       </c>
       <c r="F91" t="n">
-        <v>0.128468429999248</v>
+        <v>0.1386529711707898</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04859243531279174</v>
+        <v>0.05819875196172225</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>726627084.3832591</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2384452057.889091</v>
+        <v>2611806679.282979</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09317322817216174</v>
+        <v>0.07782481661585128</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0423960257191723</v>
+        <v>0.03353841020193082</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>63</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1192226004.166682</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4783465212.074327</v>
+        <v>3155269909.53585</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1379632552412693</v>
+        <v>0.0882705251889653</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03602880193127902</v>
+        <v>0.04779298066403673</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>76</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2391732555.96828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1676624568.462486</v>
+        <v>1519115114.817385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1611441471562212</v>
+        <v>0.1599185152939275</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02676744095620927</v>
+        <v>0.02751445759427325</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>838312240.4535912</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2538391004.33932</v>
+        <v>3129801591.619059</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09828879628672559</v>
+        <v>0.1076250892792433</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03208056341033884</v>
+        <v>0.03534826487965013</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>60</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1269195535.448945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1587121031.606595</v>
+        <v>1791972027.015173</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1239205676164495</v>
+        <v>0.1349755829738422</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03392270252503222</v>
+        <v>0.03998140647585335</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>793560546.8486193</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4994762594.947738</v>
+        <v>3908360466.382268</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1487838439761045</v>
+        <v>0.1207794288179796</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0259193862104146</v>
+        <v>0.01967880598607813</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2497381433.849875</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3602651864.832936</v>
+        <v>3049653790.014199</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09146133593980169</v>
+        <v>0.1259014851604883</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02888123591042607</v>
+        <v>0.02246758793278642</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1801325958.004905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3176651175.879976</v>
+        <v>2314518824.76917</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1359591256038235</v>
+        <v>0.1484202498044668</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03514507927625263</v>
+        <v>0.03256495647887563</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1588325586.688258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3211891959.191126</v>
+        <v>3069369893.921164</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1533359427816791</v>
+        <v>0.1503358539662064</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02228818396136384</v>
+        <v>0.02492903561227224</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>78</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1605945987.342902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2302821842.116887</v>
+        <v>2218917145.019228</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1941696670441227</v>
+        <v>0.1593354365575937</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03862920381497312</v>
+        <v>0.04814490085389119</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>100</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1151410918.01426</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_247.xlsx
+++ b/output/fit_clients/fit_round_247.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2500715733.340981</v>
+        <v>1952867361.941898</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07367228322230723</v>
+        <v>0.1135024775381922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04369748306092897</v>
+        <v>0.02913174300775818</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1976057909.443162</v>
+        <v>2595897313.078305</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1820748614614429</v>
+        <v>0.1244719768333783</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05039139619366854</v>
+        <v>0.04640328423513487</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3409654697.22929</v>
+        <v>4142698003.743176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1554992696287907</v>
+        <v>0.1554149382687696</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03475344785831545</v>
+        <v>0.0361857341352038</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2626781799.837223</v>
+        <v>3215519411.918559</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07656428705881231</v>
+        <v>0.1051477989406183</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03613111090423576</v>
+        <v>0.04883513532686436</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2336651794.406608</v>
+        <v>2598868552.619661</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1061489971601302</v>
+        <v>0.1422145868611321</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05497456794896151</v>
+        <v>0.04912375369860066</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2451770122.174318</v>
+        <v>3068845565.255812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08695960016590576</v>
+        <v>0.09004969420594729</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03195145997096765</v>
+        <v>0.03085096353566319</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3862167831.124946</v>
+        <v>2534099232.318872</v>
       </c>
       <c r="F8" t="n">
-        <v>0.142232691354508</v>
+        <v>0.197830232585678</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03156828678519442</v>
+        <v>0.03031247987835481</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1581904148.094831</v>
+        <v>1862805425.188613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1768079130007263</v>
+        <v>0.1428288434626483</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03365894579466379</v>
+        <v>0.03691531023741723</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4804377999.34293</v>
+        <v>3855714846.551488</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1624809309442868</v>
+        <v>0.1691420276270157</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04422152606200594</v>
+        <v>0.04626154656794174</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3931450066.930104</v>
+        <v>3865783138.048444</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1661403446880396</v>
+        <v>0.1575733078581301</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03416601457688068</v>
+        <v>0.03766841585281017</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2273145084.305564</v>
+        <v>2413256472.824852</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1771390149632848</v>
+        <v>0.1725727917358024</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04300889959760798</v>
+        <v>0.04197239458233566</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3680147130.572214</v>
+        <v>3995206892.635662</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07910323182584578</v>
+        <v>0.06216324227910779</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02950236177959415</v>
+        <v>0.03131372241781541</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3067780008.347269</v>
+        <v>3184354783.156051</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1717283172701089</v>
+        <v>0.165334904762443</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03298635612293539</v>
+        <v>0.03720401794852974</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1553020736.715197</v>
+        <v>1740601699.799391</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09975646081871857</v>
+        <v>0.08894730871777136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04689946816787974</v>
+        <v>0.03384784420002036</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2851920333.894281</v>
+        <v>1997002478.409281</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1021906293171854</v>
+        <v>0.1154187525198164</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03726250056235311</v>
+        <v>0.04357110305045987</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3782235855.474023</v>
+        <v>4857901654.25771</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1714234375387277</v>
+        <v>0.1660570985584618</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04324313503590645</v>
+        <v>0.04101795064858332</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3868158085.768536</v>
+        <v>3284339538.456731</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1623459882926958</v>
+        <v>0.1418453184002786</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02372100399840247</v>
+        <v>0.0340920782523898</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1321867505.483997</v>
+        <v>937660882.8375481</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1221688466249159</v>
+        <v>0.1245164965676173</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02125901718015714</v>
+        <v>0.02060767982156653</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2478388896.622444</v>
+        <v>2772847420.847447</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1069295937608138</v>
+        <v>0.1137742988336537</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02342696371148817</v>
+        <v>0.02048818919152294</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2149476725.339492</v>
+        <v>2513265393.04793</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07497411150367363</v>
+        <v>0.0837150749005123</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03166111446225033</v>
+        <v>0.03835641606894022</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3102887073.098073</v>
+        <v>3650867358.379341</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1232161268436915</v>
+        <v>0.09861235416998863</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04582704731711043</v>
+        <v>0.05138703467730082</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>960146229.886025</v>
+        <v>1127307589.227781</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1673727465332409</v>
+        <v>0.1430969497909927</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03494363239747318</v>
+        <v>0.04197016034419671</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2502294034.100877</v>
+        <v>2504836649.862369</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1274589297687619</v>
+        <v>0.1073068024685498</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03000880802276188</v>
+        <v>0.02346776584891823</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1401605044.062751</v>
+        <v>1330025253.261635</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08363213120379141</v>
+        <v>0.09126703335515672</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02961528001401411</v>
+        <v>0.02298383058556305</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1271253180.618634</v>
+        <v>1230313812.581766</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07611344583385077</v>
+        <v>0.1076693219630138</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0340582172418025</v>
+        <v>0.03416693852950751</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3424349530.350509</v>
+        <v>3154222699.344297</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0988792388298223</v>
+        <v>0.1552136596368041</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02554305250536975</v>
+        <v>0.01644415695137522</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3065971703.078681</v>
+        <v>3734904586.831377</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09399817011397482</v>
+        <v>0.1179078806001349</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0473481198675527</v>
+        <v>0.03344313718239842</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3949223633.416747</v>
+        <v>4943282308.318586</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1260177122754904</v>
+        <v>0.1368439433304776</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04351806847208349</v>
+        <v>0.03701836717725003</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1688916593.323212</v>
+        <v>2130955662.483562</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09288258232502788</v>
+        <v>0.1300936262823341</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0263772214439881</v>
+        <v>0.02732180587137426</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1194068179.145161</v>
+        <v>1365858645.686088</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1100222967331543</v>
+        <v>0.1019155117630308</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05012375501145602</v>
+        <v>0.03458666739600838</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1721693537.05429</v>
+        <v>1726645818.83021</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1028331836376627</v>
+        <v>0.1096208855290621</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03040852533131636</v>
+        <v>0.03090671694656088</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2351391279.848617</v>
+        <v>2915184967.476515</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1400575508774205</v>
+        <v>0.1297686892196868</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0554384402224765</v>
+        <v>0.05723387347711639</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1080409039.019648</v>
+        <v>1142860005.715095</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07748520118925016</v>
+        <v>0.1191414391741351</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02472021613880104</v>
+        <v>0.02601653724737346</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1007150066.136473</v>
+        <v>1059532562.429513</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1084451567673297</v>
+        <v>0.09939334782723867</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03894539617280466</v>
+        <v>0.03309075550883066</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3176721322.930602</v>
+        <v>3178509304.42659</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1101125587780161</v>
+        <v>0.1287482822107005</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02636620556156113</v>
+        <v>0.02802277780571289</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2613692679.698551</v>
+        <v>2277691445.193241</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09627430426894805</v>
+        <v>0.09448435948966717</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03341151575112682</v>
+        <v>0.03089191968712267</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1426976756.203461</v>
+        <v>1842325537.620778</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1044578541899311</v>
+        <v>0.114974735867907</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02570001127749605</v>
+        <v>0.03202841472707322</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1800762492.648353</v>
+        <v>1971647957.28945</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1550926718339229</v>
+        <v>0.1306211358875754</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02122338165537825</v>
+        <v>0.03160178154047667</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1647540367.152443</v>
+        <v>1722379354.950515</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09790549322018986</v>
+        <v>0.1331703360798004</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0538788389798059</v>
+        <v>0.04816845375361619</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2320886792.100636</v>
+        <v>2333246937.487493</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1470108575933214</v>
+        <v>0.1350517219878187</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03416450800096273</v>
+        <v>0.02921053521422593</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2896093986.386749</v>
+        <v>3417620120.456841</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1210444013803015</v>
+        <v>0.08471624745775454</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03765499563974515</v>
+        <v>0.03776787557529422</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2425719420.621887</v>
+        <v>3082203403.487473</v>
       </c>
       <c r="F43" t="n">
-        <v>0.203066976085748</v>
+        <v>0.1552179174078669</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02474657667598904</v>
+        <v>0.01595084556295759</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1945548578.029957</v>
+        <v>2020189557.600044</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0931171128290081</v>
+        <v>0.08651157044367877</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02487373533686706</v>
+        <v>0.02370179512139759</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1773363872.720419</v>
+        <v>1546757612.49339</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1919801074992379</v>
+        <v>0.121136388252659</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05124304787066954</v>
+        <v>0.04037023412044001</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5308743403.413746</v>
+        <v>3694380558.330503</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1280091791740679</v>
+        <v>0.1118077605709708</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0380959078176602</v>
+        <v>0.05531560430454017</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4327235860.862949</v>
+        <v>4791840935.217916</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1982128260028197</v>
+        <v>0.134297664159991</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05359092865019956</v>
+        <v>0.04062327240769384</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3101665452.817317</v>
+        <v>3996538089.287955</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08335291007483343</v>
+        <v>0.0889862851460536</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0273036180210133</v>
+        <v>0.02875682905109346</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1579456075.107275</v>
+        <v>1417420125.024631</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1212448295064187</v>
+        <v>0.1710102146869515</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02926514871575341</v>
+        <v>0.03712646406894898</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2969186008.175114</v>
+        <v>2581212213.804738</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1744385198204389</v>
+        <v>0.1708297844732699</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03617405628250368</v>
+        <v>0.0439696702968962</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1256453047.789152</v>
+        <v>1507694747.079591</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1330693878406286</v>
+        <v>0.1502388230135004</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0378364133620297</v>
+        <v>0.05450553750183717</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4343408622.316839</v>
+        <v>4433593591.705458</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1300581025161179</v>
+        <v>0.08934118034869437</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04572196733907322</v>
+        <v>0.0615582114048858</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3653070971.152555</v>
+        <v>2434161673.605056</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1413744169466905</v>
+        <v>0.1786771171711612</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0253268814723861</v>
+        <v>0.02659740772901059</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4707473434.124475</v>
+        <v>4574869398.205901</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1662646433307788</v>
+        <v>0.1065437275509732</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04376907800303382</v>
+        <v>0.04872827621288031</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4785666323.755762</v>
+        <v>3663205590.884169</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1877229637986202</v>
+        <v>0.1564768044684297</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02894437509922305</v>
+        <v>0.02579221948389338</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1144847623.848372</v>
+        <v>1847337023.555313</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1407876618952767</v>
+        <v>0.1315186331331939</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04504445493939098</v>
+        <v>0.03653155002701665</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4138961599.308816</v>
+        <v>4332421016.077524</v>
       </c>
       <c r="F57" t="n">
-        <v>0.16748231395829</v>
+        <v>0.1123756738736306</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02586349078769618</v>
+        <v>0.02424404516556525</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1621361248.953394</v>
+        <v>1378059353.941429</v>
       </c>
       <c r="F58" t="n">
-        <v>0.167843564656741</v>
+        <v>0.1480310730483795</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02463236545134883</v>
+        <v>0.03944866801147558</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3441187537.557653</v>
+        <v>5405294253.496361</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09314944045249102</v>
+        <v>0.1133446205927451</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03596248487438588</v>
+        <v>0.03786455692880921</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2759535652.344562</v>
+        <v>3628935664.036446</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1387167427448822</v>
+        <v>0.1710474637744528</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03110676541715723</v>
+        <v>0.03252145333343644</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3111777056.247603</v>
+        <v>2218929096.077771</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1174648688710861</v>
+        <v>0.130962919824582</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02483431812565326</v>
+        <v>0.02260303601055208</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1440563417.206906</v>
+        <v>2102002224.517107</v>
       </c>
       <c r="F62" t="n">
-        <v>0.134609225732415</v>
+        <v>0.1307541589422744</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03202027153901295</v>
+        <v>0.03948112181346974</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4034645459.004033</v>
+        <v>3711710678.016082</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1020825598116299</v>
+        <v>0.07215546887711162</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04292531565736522</v>
+        <v>0.03224710929471761</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5072203808.25769</v>
+        <v>3498534666.428329</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1695988048340326</v>
+        <v>0.165344982560865</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03505853131237797</v>
+        <v>0.03205399323706112</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3849923973.43692</v>
+        <v>4011078439.839228</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1335421223926358</v>
+        <v>0.1669310555275958</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0311166731349189</v>
+        <v>0.03011876436652755</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3458258444.228115</v>
+        <v>3923534054.347984</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1364108676571189</v>
+        <v>0.111064763520077</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03430345475285109</v>
+        <v>0.04401136799663893</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3494153497.885275</v>
+        <v>2252381416.171255</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08254696330385702</v>
+        <v>0.07186287244142853</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03577212287394919</v>
+        <v>0.04639681997050013</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4919775153.396976</v>
+        <v>5781162451.79227</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1214314601618393</v>
+        <v>0.1533838366005587</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04873632092961204</v>
+        <v>0.0466118220970132</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1841617922.238223</v>
+        <v>2224098594.655145</v>
       </c>
       <c r="F69" t="n">
-        <v>0.123990396773711</v>
+        <v>0.1785278744331091</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05884648277510633</v>
+        <v>0.05846398810187841</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3220103826.140788</v>
+        <v>2951526713.228183</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08756946508454981</v>
+        <v>0.09354062787468931</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03057968123729445</v>
+        <v>0.04300365348886582</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4308883634.578519</v>
+        <v>4235494271.38992</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1702728885985437</v>
+        <v>0.1724681774456953</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02616000759528689</v>
+        <v>0.023025042682077</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2267188426.739313</v>
+        <v>1478501849.525128</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09266276899332923</v>
+        <v>0.1036148583798927</v>
       </c>
       <c r="G72" t="n">
-        <v>0.048128463907644</v>
+        <v>0.04091771756074369</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2850777813.207464</v>
+        <v>2225982610.702352</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1121547416960039</v>
+        <v>0.1108155444132512</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04750054798527396</v>
+        <v>0.04485096264312299</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3315064033.514543</v>
+        <v>3194108367.67043</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1248426000139578</v>
+        <v>0.1195865587713271</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03281138384841146</v>
+        <v>0.03484328561415476</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2496513771.871332</v>
+        <v>1728301234.322526</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1129963400435689</v>
+        <v>0.157436049415887</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02595298232805335</v>
+        <v>0.03053611639918128</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4808543438.124771</v>
+        <v>3785462003.714811</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1028108116427489</v>
+        <v>0.1073862573665341</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0274849384340681</v>
+        <v>0.02862992549493602</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1881540624.510238</v>
+        <v>2299779978.217646</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1252598261539449</v>
+        <v>0.1351409768756736</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02526848579381216</v>
+        <v>0.02082249773646366</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3213693995.718137</v>
+        <v>4448241452.386889</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1218338308111811</v>
+        <v>0.1318141139088589</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0527610206937587</v>
+        <v>0.0459676078797106</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1453899054.613677</v>
+        <v>1383728692.922153</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1344826240691267</v>
+        <v>0.1706439325684327</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03423135980682002</v>
+        <v>0.02674679471129999</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4396150053.673285</v>
+        <v>5540537314.769457</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08215417331706681</v>
+        <v>0.07301140012978255</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03669441291156297</v>
+        <v>0.0362969758956501</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3577806019.997152</v>
+        <v>4972944523.054651</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1278054945160852</v>
+        <v>0.09762921990808929</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02554614634345336</v>
+        <v>0.02892767176315367</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4112787400.929043</v>
+        <v>3525361064.897263</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1872186694108884</v>
+        <v>0.1352793193147047</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0227898654701611</v>
+        <v>0.02930451732574992</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2272013766.78464</v>
+        <v>1530513170.085782</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1504519016416813</v>
+        <v>0.1500374967233178</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03439492859817415</v>
+        <v>0.0450832611077508</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2205087707.190092</v>
+        <v>1714800153.051557</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09427545082892469</v>
+        <v>0.08631358675435076</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0369218390512427</v>
+        <v>0.0504136583576807</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2387835483.170079</v>
+        <v>3362394941.661591</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1797756498000063</v>
+        <v>0.1582512339015272</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05190182722621246</v>
+        <v>0.03851488271971295</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2156116580.454446</v>
+        <v>2519924782.095441</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1171523730923875</v>
+        <v>0.1638405998665039</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0239458926441402</v>
+        <v>0.02231080921822559</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1231624049.365349</v>
+        <v>1380692646.072161</v>
       </c>
       <c r="F87" t="n">
-        <v>0.16408437008962</v>
+        <v>0.184720451498452</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04197970137341099</v>
+        <v>0.02689847836681236</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3491060159.944399</v>
+        <v>3163020536.914446</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1629733578598021</v>
+        <v>0.1328418412544536</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03133753733370415</v>
+        <v>0.02675031188421782</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3350607995.446003</v>
+        <v>3084290031.621955</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1601896068405689</v>
+        <v>0.1292906869196454</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0278899916724546</v>
+        <v>0.03922642012653631</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1784250424.468236</v>
+        <v>2007739431.57799</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1360961036535411</v>
+        <v>0.1369307573780579</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05298373657545962</v>
+        <v>0.04392956161675775</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1920386687.494692</v>
+        <v>1390907019.8346</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1386529711707898</v>
+        <v>0.1347567648236573</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05819875196172225</v>
+        <v>0.05062431076267643</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2611806679.282979</v>
+        <v>1927691787.168234</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07782481661585128</v>
+        <v>0.0981975547651225</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03353841020193082</v>
+        <v>0.04448692176821353</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3155269909.53585</v>
+        <v>4452003231.537598</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0882705251889653</v>
+        <v>0.08938271386128439</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04779298066403673</v>
+        <v>0.03655859395606412</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1519115114.817385</v>
+        <v>2321078395.921032</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1599185152939275</v>
+        <v>0.1189707222179952</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02751445759427325</v>
+        <v>0.02775098031004236</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3129801591.619059</v>
+        <v>2342933443.40183</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1076250892792433</v>
+        <v>0.1018276519181201</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03534826487965013</v>
+        <v>0.04082661340991516</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1791972027.015173</v>
+        <v>2003942926.74933</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1349755829738422</v>
+        <v>0.1119776985059344</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03998140647585335</v>
+        <v>0.03671968031130261</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3908360466.382268</v>
+        <v>3854052506.284724</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1207794288179796</v>
+        <v>0.1586454138559197</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01967880598607813</v>
+        <v>0.02074722965061101</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3049653790.014199</v>
+        <v>3775033829.730439</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1259014851604883</v>
+        <v>0.09442717021934739</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02246758793278642</v>
+        <v>0.02732499669898356</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2314518824.76917</v>
+        <v>2306359476.719145</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1484202498044668</v>
+        <v>0.1168349311688233</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03256495647887563</v>
+        <v>0.03110159834293763</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3069369893.921164</v>
+        <v>4556545592.051293</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1503358539662064</v>
+        <v>0.1249206932752031</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02492903561227224</v>
+        <v>0.02134628807758936</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2218917145.019228</v>
+        <v>2516888699.817547</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1593354365575937</v>
+        <v>0.1537367238010554</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04814490085389119</v>
+        <v>0.03609119313345015</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_247.xlsx
+++ b/output/fit_clients/fit_round_247.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1952867361.941898</v>
+        <v>2018798873.302604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1135024775381922</v>
+        <v>0.1122605800655739</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02913174300775818</v>
+        <v>0.0295225100696494</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2595897313.078305</v>
+        <v>1885162785.728605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1244719768333783</v>
+        <v>0.1505186284185874</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04640328423513487</v>
+        <v>0.0385108764394568</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4142698003.743176</v>
+        <v>3716742425.506998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1554149382687696</v>
+        <v>0.1624820843497352</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0361857341352038</v>
+        <v>0.0338511335071939</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>133</v>
+      </c>
+      <c r="J4" t="n">
+        <v>247</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3215519411.918559</v>
+        <v>3832671386.556721</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1051477989406183</v>
+        <v>0.09784975545359809</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04883513532686436</v>
+        <v>0.04141568154924053</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>101</v>
+      </c>
+      <c r="J5" t="n">
+        <v>247</v>
+      </c>
+      <c r="K5" t="n">
+        <v>116.3801249131992</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2598868552.619661</v>
+        <v>2035207791.669881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1422145868611321</v>
+        <v>0.09555333603339179</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04912375369860066</v>
+        <v>0.03939323163468198</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3068845565.255812</v>
+        <v>2891732118.178305</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09004969420594729</v>
+        <v>0.07104619116606352</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03085096353566319</v>
+        <v>0.0431902392424535</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2534099232.318872</v>
+        <v>2959674778.644066</v>
       </c>
       <c r="F8" t="n">
-        <v>0.197830232585678</v>
+        <v>0.1335857380125407</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03031247987835481</v>
+        <v>0.03125815836460536</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1862805425.188613</v>
+        <v>1840886563.928353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1428288434626483</v>
+        <v>0.1200828880259099</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03691531023741723</v>
+        <v>0.0343102784420069</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3855714846.551488</v>
+        <v>4242613720.552204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1691420276270157</v>
+        <v>0.1656271698932338</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04626154656794174</v>
+        <v>0.03385626624553847</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>225</v>
+      </c>
+      <c r="J10" t="n">
+        <v>247</v>
+      </c>
+      <c r="K10" t="n">
+        <v>108.3985548942083</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3865783138.048444</v>
+        <v>3187251864.307253</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1575733078581301</v>
+        <v>0.155131412409385</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03766841585281017</v>
+        <v>0.03844832012588931</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>102</v>
+      </c>
+      <c r="J11" t="n">
+        <v>245</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2413256472.824852</v>
+        <v>2149663944.360043</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1725727917358024</v>
+        <v>0.1712095704479458</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04197239458233566</v>
+        <v>0.04964579315088879</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3995206892.635662</v>
+        <v>4849061413.904627</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06216324227910779</v>
+        <v>0.086525266755702</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03131372241781541</v>
+        <v>0.02601784157705585</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>125</v>
+      </c>
+      <c r="J13" t="n">
+        <v>247</v>
+      </c>
+      <c r="K13" t="n">
+        <v>105.9836742064347</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3184354783.156051</v>
+        <v>2849210769.626034</v>
       </c>
       <c r="F14" t="n">
-        <v>0.165334904762443</v>
+        <v>0.1257231483710546</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03720401794852974</v>
+        <v>0.04347327804232065</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>243</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1740601699.799391</v>
+        <v>1619029205.222844</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08894730871777136</v>
+        <v>0.1039835747502698</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03384784420002036</v>
+        <v>0.04504987059809085</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1997002478.409281</v>
+        <v>1872535089.682344</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1154187525198164</v>
+        <v>0.1121276946433473</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04357110305045987</v>
+        <v>0.03899113897322692</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4857901654.25771</v>
+        <v>3788211454.414355</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1660570985584618</v>
+        <v>0.1523039762816141</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04101795064858332</v>
+        <v>0.04217647864444029</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>119</v>
+      </c>
+      <c r="J17" t="n">
+        <v>246</v>
+      </c>
+      <c r="K17" t="n">
+        <v>91.27457052399667</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3284339538.456731</v>
+        <v>2457612810.758691</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1418453184002786</v>
+        <v>0.1836007361443424</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0340920782523898</v>
+        <v>0.0327793895209063</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>62</v>
+      </c>
+      <c r="J18" t="n">
+        <v>246</v>
+      </c>
+      <c r="K18" t="n">
+        <v>43.50987438184418</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>937660882.8375481</v>
+        <v>838499024.9649242</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1245164965676173</v>
+        <v>0.1525940477676138</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02060767982156653</v>
+        <v>0.017894723250895</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2772847420.847447</v>
+        <v>2648347511.904164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1137742988336537</v>
+        <v>0.1031955205500415</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02048818919152294</v>
+        <v>0.03171846001396068</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2513265393.04793</v>
+        <v>2362066122.0014</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0837150749005123</v>
+        <v>0.06537151237294007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03835641606894022</v>
+        <v>0.04297431530934143</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3650867358.379341</v>
+        <v>2794063726.642947</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09861235416998863</v>
+        <v>0.106457983564291</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05138703467730082</v>
+        <v>0.04301453686366231</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>245</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1127307589.227781</v>
+        <v>1003898847.301309</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1430969497909927</v>
+        <v>0.1302983608157648</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04197016034419671</v>
+        <v>0.03686510687022575</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2504836649.862369</v>
+        <v>3872869917.406706</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1073068024685498</v>
+        <v>0.1098869675753487</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02346776584891823</v>
+        <v>0.03719144463909434</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>246</v>
+      </c>
+      <c r="K24" t="n">
+        <v>96.95590654157857</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1330025253.261635</v>
+        <v>1117617903.586603</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09126703335515672</v>
+        <v>0.1080374070573516</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02298383058556305</v>
+        <v>0.0298288236432862</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1230313812.581766</v>
+        <v>1402047534.410831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1076693219630138</v>
+        <v>0.1189348683595407</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03416693852950751</v>
+        <v>0.03303979573821848</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3154222699.344297</v>
+        <v>3223617860.542807</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1552136596368041</v>
+        <v>0.1167461204504388</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01644415695137522</v>
+        <v>0.02389155724394191</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>100</v>
+      </c>
+      <c r="J27" t="n">
+        <v>246</v>
+      </c>
+      <c r="K27" t="n">
+        <v>62.80253294493329</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3734904586.831377</v>
+        <v>2824873347.170413</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1179078806001349</v>
+        <v>0.1445643985786547</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03344313718239842</v>
+        <v>0.04418767927835384</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4943282308.318586</v>
+        <v>5685434139.831543</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1368439433304776</v>
+        <v>0.145133260638188</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03701836717725003</v>
+        <v>0.03672665700610186</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>235</v>
+      </c>
+      <c r="J29" t="n">
+        <v>247</v>
+      </c>
+      <c r="K29" t="n">
+        <v>110.5856778020106</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2130955662.483562</v>
+        <v>2384241441.823652</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1300936262823341</v>
+        <v>0.1314833309044232</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02732180587137426</v>
+        <v>0.02601038686677988</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1365858645.686088</v>
+        <v>1497306646.973688</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1019155117630308</v>
+        <v>0.08564104095167836</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03458666739600838</v>
+        <v>0.03432814935881105</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1726645818.83021</v>
+        <v>1282591509.995752</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1096208855290621</v>
+        <v>0.1174500925470956</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03090671694656088</v>
+        <v>0.03312079796675606</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2915184967.476515</v>
+        <v>2846360530.66476</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1297686892196868</v>
+        <v>0.1569665779526258</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05723387347711639</v>
+        <v>0.04345790244976978</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1142860005.715095</v>
+        <v>1111166610.018884</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1191414391741351</v>
+        <v>0.07478461378647656</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02601653724737346</v>
+        <v>0.02100346377495182</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1059532562.429513</v>
+        <v>1344796433.390466</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09939334782723867</v>
+        <v>0.1119711474954358</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03309075550883066</v>
+        <v>0.03204468893529601</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3178509304.42659</v>
+        <v>2816250304.20996</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1287482822107005</v>
+        <v>0.1402310378322847</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02802277780571289</v>
+        <v>0.01760817931620981</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2277691445.193241</v>
+        <v>2716727465.948169</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09448435948966717</v>
+        <v>0.0934234211001186</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03089191968712267</v>
+        <v>0.03134356596768265</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1842325537.620778</v>
+        <v>1937584865.686557</v>
       </c>
       <c r="F38" t="n">
-        <v>0.114974735867907</v>
+        <v>0.1175859810348772</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03202841472707322</v>
+        <v>0.03373523674582669</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1971647957.28945</v>
+        <v>1462848784.925866</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1306211358875754</v>
+        <v>0.1666301448899905</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03160178154047667</v>
+        <v>0.02043228118561348</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1722379354.950515</v>
+        <v>1447478356.008775</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1331703360798004</v>
+        <v>0.1530095701904888</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04816845375361619</v>
+        <v>0.04690585040497001</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2333246937.487493</v>
+        <v>2050304136.442492</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1350517219878187</v>
+        <v>0.1122286206427958</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02921053521422593</v>
+        <v>0.03075201159711937</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3417620120.456841</v>
+        <v>3418194674.491183</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08471624745775454</v>
+        <v>0.08364159286797984</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03776787557529422</v>
+        <v>0.02905770799510264</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>103</v>
+      </c>
+      <c r="J42" t="n">
+        <v>246</v>
+      </c>
+      <c r="K42" t="n">
+        <v>87.21222134570355</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3082203403.487473</v>
+        <v>2383318872.360654</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1552179174078669</v>
+        <v>0.1961857407862733</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01595084556295759</v>
+        <v>0.02541676081207072</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2020189557.600044</v>
+        <v>2166156862.58464</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08651157044367877</v>
+        <v>0.06815738259143693</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02370179512139759</v>
+        <v>0.02505536397172588</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1546757612.49339</v>
+        <v>2504270857.867023</v>
       </c>
       <c r="F45" t="n">
-        <v>0.121136388252659</v>
+        <v>0.1369102003393538</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04037023412044001</v>
+        <v>0.0404258312383763</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2059,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3694380558.330503</v>
+        <v>4275969646.653752</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1118077605709708</v>
+        <v>0.1388229723987691</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05531560430454017</v>
+        <v>0.04902691872661388</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>141</v>
+      </c>
+      <c r="J46" t="n">
+        <v>247</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4791840935.217916</v>
+        <v>3133925376.00423</v>
       </c>
       <c r="F47" t="n">
-        <v>0.134297664159991</v>
+        <v>0.1833041609404599</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04062327240769384</v>
+        <v>0.05749483679424412</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>111</v>
+      </c>
+      <c r="J47" t="n">
+        <v>246</v>
+      </c>
+      <c r="K47" t="n">
+        <v>55.79927710246444</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3996538089.287955</v>
+        <v>3655645989.977922</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0889862851460536</v>
+        <v>0.06992662158305402</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02875682905109346</v>
+        <v>0.03134032438482263</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>122</v>
+      </c>
+      <c r="J48" t="n">
+        <v>247</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1417420125.024631</v>
+        <v>1546661774.636543</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1710102146869515</v>
+        <v>0.1296773509601061</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03712646406894898</v>
+        <v>0.0443933278169223</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2581212213.804738</v>
+        <v>4205216953.363244</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1708297844732699</v>
+        <v>0.1120975621397778</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0439696702968962</v>
+        <v>0.05089570559846366</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>80</v>
+      </c>
+      <c r="J50" t="n">
+        <v>247</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1507694747.079591</v>
+        <v>1155307883.880648</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1502388230135004</v>
+        <v>0.1906518292715424</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05450553750183717</v>
+        <v>0.0544746318681261</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4433593591.705458</v>
+        <v>3832212189.779945</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08934118034869437</v>
+        <v>0.1389122482289494</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0615582114048858</v>
+        <v>0.05289768911888632</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>159</v>
+      </c>
+      <c r="J52" t="n">
+        <v>247</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2434161673.605056</v>
+        <v>2720991375.556735</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1786771171711612</v>
+        <v>0.1448842170858238</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02659740772901059</v>
+        <v>0.02379618502739499</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4574869398.205901</v>
+        <v>3104913907.672001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1065437275509732</v>
+        <v>0.1633858272838818</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04872827621288031</v>
+        <v>0.03494012879937214</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>130</v>
+      </c>
+      <c r="J54" t="n">
+        <v>246</v>
+      </c>
+      <c r="K54" t="n">
+        <v>67.17817719816645</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2378,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3663205590.884169</v>
+        <v>4896334540.197127</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1564768044684297</v>
+        <v>0.2018359443741398</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02579221948389338</v>
+        <v>0.02130361159188595</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>111</v>
+      </c>
+      <c r="J55" t="n">
+        <v>246</v>
+      </c>
+      <c r="K55" t="n">
+        <v>101.2777808713671</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1847337023.555313</v>
+        <v>1171690285.398252</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1315186331331939</v>
+        <v>0.1281573754622482</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03653155002701665</v>
+        <v>0.05370675619029324</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4332421016.077524</v>
+        <v>4536286677.260313</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1123756738736306</v>
+        <v>0.1670710288263419</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02424404516556525</v>
+        <v>0.02629473526244715</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>97</v>
+      </c>
+      <c r="J57" t="n">
+        <v>247</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1378059353.941429</v>
+        <v>1335395693.831885</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1480310730483795</v>
+        <v>0.1769884830849741</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03944866801147558</v>
+        <v>0.03587468495922007</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5405294253.496361</v>
+        <v>3793506173.538934</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1133446205927451</v>
+        <v>0.1285693806594198</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03786455692880921</v>
+        <v>0.03972309770865801</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>119</v>
+      </c>
+      <c r="J59" t="n">
+        <v>247</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3628935664.036446</v>
+        <v>2297624917.094319</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1710474637744528</v>
+        <v>0.1291664531873671</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03252145333343644</v>
+        <v>0.02570622724731616</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>36</v>
+      </c>
+      <c r="J60" t="n">
+        <v>245</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2218929096.077771</v>
+        <v>3027166976.84578</v>
       </c>
       <c r="F61" t="n">
-        <v>0.130962919824582</v>
+        <v>0.1254960505535215</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02260303601055208</v>
+        <v>0.03119939399978656</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2102002224.517107</v>
+        <v>1450681638.497188</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1307541589422744</v>
+        <v>0.1759147209816815</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03948112181346974</v>
+        <v>0.03755398063678538</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3711710678.016082</v>
+        <v>4273350265.199008</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07215546887711162</v>
+        <v>0.08829102433840107</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03224710929471761</v>
+        <v>0.04072861875802351</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>120</v>
+      </c>
+      <c r="J63" t="n">
+        <v>247</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3498534666.428329</v>
+        <v>4671134034.825003</v>
       </c>
       <c r="F64" t="n">
-        <v>0.165344982560865</v>
+        <v>0.160500136102618</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03205399323706112</v>
+        <v>0.02903735072794589</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>122</v>
+      </c>
+      <c r="J64" t="n">
+        <v>246</v>
+      </c>
+      <c r="K64" t="n">
+        <v>101.1341385367984</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4011078439.839228</v>
+        <v>5191847834.911474</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1669310555275958</v>
+        <v>0.1610401000653292</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03011876436652755</v>
+        <v>0.03117979409856309</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>197</v>
+      </c>
+      <c r="J65" t="n">
+        <v>247</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3923534054.347984</v>
+        <v>4775572112.536054</v>
       </c>
       <c r="F66" t="n">
-        <v>0.111064763520077</v>
+        <v>0.1515573686465357</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04401136799663893</v>
+        <v>0.04303179936125767</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>122</v>
+      </c>
+      <c r="J66" t="n">
+        <v>246</v>
+      </c>
+      <c r="K66" t="n">
+        <v>92.63514031209017</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2252381416.171255</v>
+        <v>2992685220.029513</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07186287244142853</v>
+        <v>0.06411751183610069</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04639681997050013</v>
+        <v>0.03582251206573813</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5781162451.79227</v>
+        <v>3762544148.653197</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1533838366005587</v>
+        <v>0.1511396660755303</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0466118220970132</v>
+        <v>0.04469668097944934</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>126</v>
+      </c>
+      <c r="J68" t="n">
+        <v>246</v>
+      </c>
+      <c r="K68" t="n">
+        <v>98.83912937596733</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2224098594.655145</v>
+        <v>1582633141.178479</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1785278744331091</v>
+        <v>0.1159308789254498</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05846398810187841</v>
+        <v>0.04832699030693464</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2951526713.228183</v>
+        <v>2571671374.041173</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09354062787468931</v>
+        <v>0.06875260095811414</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04300365348886582</v>
+        <v>0.03342806582530543</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4235494271.38992</v>
+        <v>3468997733.926015</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1724681774456953</v>
+        <v>0.1809728428555869</v>
       </c>
       <c r="G71" t="n">
-        <v>0.023025042682077</v>
+        <v>0.02851188206646551</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>185</v>
+      </c>
+      <c r="J71" t="n">
+        <v>247</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1478501849.525128</v>
+        <v>1500332208.026355</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1036148583798927</v>
+        <v>0.08223859907084782</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04091771756074369</v>
+        <v>0.04305201900331241</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2225982610.702352</v>
+        <v>2277671294.270685</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1108155444132512</v>
+        <v>0.09262509592855442</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04485096264312299</v>
+        <v>0.03299165826375462</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>243</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3194108367.67043</v>
+        <v>2534223796.96176</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1195865587713271</v>
+        <v>0.1205430548016996</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03484328561415476</v>
+        <v>0.02800930413780571</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>70</v>
+      </c>
+      <c r="J74" t="n">
+        <v>241</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1728301234.322526</v>
+        <v>2059516305.078917</v>
       </c>
       <c r="F75" t="n">
-        <v>0.157436049415887</v>
+        <v>0.1258092798657937</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03053611639918128</v>
+        <v>0.03410189694204073</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3785462003.714811</v>
+        <v>5220951606.014236</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1073862573665341</v>
+        <v>0.1061931525789883</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02862992549493602</v>
+        <v>0.02816583029839949</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>115</v>
+      </c>
+      <c r="J76" t="n">
+        <v>246</v>
+      </c>
+      <c r="K76" t="n">
+        <v>93.43690430378</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2299779978.217646</v>
+        <v>2211285675.82971</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1351409768756736</v>
+        <v>0.1434006421581668</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02082249773646366</v>
+        <v>0.02286259732575571</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4448241452.386889</v>
+        <v>3127754746.479463</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1318141139088589</v>
+        <v>0.08517901656982753</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0459676078797106</v>
+        <v>0.04686269388356656</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>123</v>
+      </c>
+      <c r="J78" t="n">
+        <v>246</v>
+      </c>
+      <c r="K78" t="n">
+        <v>67.89823606978915</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1383728692.922153</v>
+        <v>1192579362.543312</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1706439325684327</v>
+        <v>0.1252736869280615</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02674679471129999</v>
+        <v>0.02456244128510291</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5540537314.769457</v>
+        <v>3679418645.23184</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07301140012978255</v>
+        <v>0.06805395222475233</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0362969758956501</v>
+        <v>0.03651607573533469</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>120</v>
+      </c>
+      <c r="J80" t="n">
+        <v>247</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4972944523.054651</v>
+        <v>4256140544.540306</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09762921990808929</v>
+        <v>0.09917148377794643</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02892767176315367</v>
+        <v>0.02347137132500678</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>113</v>
+      </c>
+      <c r="J81" t="n">
+        <v>247</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3525361064.897263</v>
+        <v>4115006922.791744</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1352793193147047</v>
+        <v>0.1728701013195674</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02930451732574992</v>
+        <v>0.02213135821913436</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>187</v>
+      </c>
+      <c r="J82" t="n">
+        <v>247</v>
+      </c>
+      <c r="K82" t="n">
+        <v>104.0630149805174</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1530513170.085782</v>
+        <v>1923579259.731522</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1500374967233178</v>
+        <v>0.104773194604291</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0450832611077508</v>
+        <v>0.03493171526588614</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1714800153.051557</v>
+        <v>1659628107.597497</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08631358675435076</v>
+        <v>0.08656922130638343</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0504136583576807</v>
+        <v>0.04752843987592491</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3362394941.661591</v>
+        <v>2716327430.021368</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1582512339015272</v>
+        <v>0.1113043944887474</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03851488271971295</v>
+        <v>0.05360265859308928</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>242</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2519924782.095441</v>
+        <v>1776860392.655998</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1638405998665039</v>
+        <v>0.1493792625191055</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02231080921822559</v>
+        <v>0.0248118300736992</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1380692646.072161</v>
+        <v>1370736456.513573</v>
       </c>
       <c r="F87" t="n">
-        <v>0.184720451498452</v>
+        <v>0.1284968582655596</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02689847836681236</v>
+        <v>0.02794266985262594</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3163020536.914446</v>
+        <v>3513075389.576273</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1328418412544536</v>
+        <v>0.1181268955011129</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02675031188421782</v>
+        <v>0.03649713631007213</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>247</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3084290031.621955</v>
+        <v>2499633540.467516</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1292906869196454</v>
+        <v>0.1117267056498399</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03922642012653631</v>
+        <v>0.04061495610487229</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>241</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2007739431.57799</v>
+        <v>1468472901.292651</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1369307573780579</v>
+        <v>0.08499444829831439</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04392956161675775</v>
+        <v>0.03666088431429542</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1390907019.8346</v>
+        <v>1331453375.19096</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1347567648236573</v>
+        <v>0.170314190720927</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05062431076267643</v>
+        <v>0.05082020969073544</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1927691787.168234</v>
+        <v>2449053509.814922</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0981975547651225</v>
+        <v>0.09659543271075641</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04448692176821353</v>
+        <v>0.03198236740813144</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4452003231.537598</v>
+        <v>4635442616.92072</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08938271386128439</v>
+        <v>0.1383637663735426</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03655859395606412</v>
+        <v>0.04825842574484207</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>110</v>
+      </c>
+      <c r="J93" t="n">
+        <v>246</v>
+      </c>
+      <c r="K93" t="n">
+        <v>99.91357788734558</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2321078395.921032</v>
+        <v>1940475334.744638</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1189707222179952</v>
+        <v>0.1684229864511195</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02775098031004236</v>
+        <v>0.0348339546698343</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2342933443.40183</v>
+        <v>2433630188.852554</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1018276519181201</v>
+        <v>0.1162584399376767</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04082661340991516</v>
+        <v>0.0413215099577242</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2003942926.74933</v>
+        <v>1735765670.998751</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1119776985059344</v>
+        <v>0.1224528765461253</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03671968031130261</v>
+        <v>0.02960654929949428</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3854052506.284724</v>
+        <v>4662696360.114396</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1586454138559197</v>
+        <v>0.1692368220374622</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02074722965061101</v>
+        <v>0.02763927831502004</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>120</v>
+      </c>
+      <c r="J97" t="n">
+        <v>247</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3775033829.730439</v>
+        <v>3238301778.102281</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09442717021934739</v>
+        <v>0.09728238050871588</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02732499669898356</v>
+        <v>0.02412609448827681</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>60</v>
+      </c>
+      <c r="J98" t="n">
+        <v>247</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2306359476.719145</v>
+        <v>2172937705.251107</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1168349311688233</v>
+        <v>0.09505674893897291</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03110159834293763</v>
+        <v>0.03026664347235941</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4556545592.051293</v>
+        <v>4615470614.802065</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1249206932752031</v>
+        <v>0.1644176744529193</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02134628807758936</v>
+        <v>0.02665486768340487</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>103</v>
+      </c>
+      <c r="J100" t="n">
+        <v>246</v>
+      </c>
+      <c r="K100" t="n">
+        <v>102.884579820302</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2516888699.817547</v>
+        <v>3062553807.503858</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1537367238010554</v>
+        <v>0.2206431167774545</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03609119313345015</v>
+        <v>0.0459464621396295</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
